--- a/medicine/Sexualité et sexologie/Orphelinat_du_Mount_Cashel/Orphelinat_du_Mount_Cashel.xlsx
+++ b/medicine/Sexualité et sexologie/Orphelinat_du_Mount_Cashel/Orphelinat_du_Mount_Cashel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'orphelinat du Mount Cashel est un orphelinat pour garçons situé à Saint-Jean de Terre-Neuve au Canada. L'orphelinat était géré par la congrégation des Frères chrétiens et a fermé en 1989. Il est devenu tristement célèbre pour des abus sexuels par des religieux sur les enfants.
 </t>
@@ -511,12 +523,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’orphelinat du Mount Cashel est créé à la fin du dix-neuvième siècle. Les Frères chrétiens prennent la direction de l'orphelinat en 1949. Celui-ci est fermé  à la fin de 1989 quand sont révélés des abus sexuels sur des centaines de victimes parmi les enfants de l’orphelinat. Le batiment est détruit en 1992 pour laisser place à un centre commercial[1] .
-En 1975, des enfants déclarent qu'ils sont victimes de trois religieux qui les caressent, les embrassent, les battent et les violent. Mais l'affaire est étouffée avec l'intervention du ministère de la Justice. À la suite d'une enquête journalistique le dossier est cette fois-ci correctement instruit de 1989 à 1996 et donne lieu à des condamnations[2],[1].
-En 2019, la Cour d’appel de Terre-Neuve-et-Labrador a déclaré l’archidiocèse de Saint-Jean responsable des abus sexuels commis contre quatre garçons dans les années 1940, 1950 et 1960[3]. La Cour a reconnu que même si la congrégation des Frères chrétiens  gérait l’orphelinat, l’archidiocèse a permis aux religieux de commettre des abus sexuels impunément pendant des décennies. Le juge a accordé 2,4 millions de dollars à quatre victimes, mais il a aussi ouvert la voie à une centaine d’autres litiges contre l’archidiocèse.
-En 2022, l'archidiocèse met en vente des bâtiments dans 34 paroisses, y compris la Basilique St. John the Baptist, dans l'intention de dédommager les victimes[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’orphelinat du Mount Cashel est créé à la fin du dix-neuvième siècle. Les Frères chrétiens prennent la direction de l'orphelinat en 1949. Celui-ci est fermé  à la fin de 1989 quand sont révélés des abus sexuels sur des centaines de victimes parmi les enfants de l’orphelinat. Le batiment est détruit en 1992 pour laisser place à un centre commercial .
+En 1975, des enfants déclarent qu'ils sont victimes de trois religieux qui les caressent, les embrassent, les battent et les violent. Mais l'affaire est étouffée avec l'intervention du ministère de la Justice. À la suite d'une enquête journalistique le dossier est cette fois-ci correctement instruit de 1989 à 1996 et donne lieu à des condamnations,.
+En 2019, la Cour d’appel de Terre-Neuve-et-Labrador a déclaré l’archidiocèse de Saint-Jean responsable des abus sexuels commis contre quatre garçons dans les années 1940, 1950 et 1960. La Cour a reconnu que même si la congrégation des Frères chrétiens  gérait l’orphelinat, l’archidiocèse a permis aux religieux de commettre des abus sexuels impunément pendant des décennies. Le juge a accordé 2,4 millions de dollars à quatre victimes, mais il a aussi ouvert la voie à une centaine d’autres litiges contre l’archidiocèse.
+En 2022, l'archidiocèse met en vente des bâtiments dans 34 paroisses, y compris la Basilique St. John the Baptist, dans l'intention de dédommager les victimes.
 </t>
         </is>
       </c>
